--- a/evaluationSheet.xlsx
+++ b/evaluationSheet.xlsx
@@ -246,7 +246,7 @@
     <t>tb173</t>
   </si>
   <si>
-    <t>Habit-Tracker</t>
+    <t>Habit Tracker</t>
   </si>
   <si>
     <t>Julius</t>
@@ -564,13 +564,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>749879</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>39048</xdr:rowOff>
+      <xdr:colOff>742407</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>746999</xdr:colOff>
+      <xdr:colOff>754471</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>131041</xdr:rowOff>
     </xdr:to>
@@ -581,10 +581,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7836479" y="214308"/>
-          <a:ext cx="4950121" cy="968294"/>
-          <a:chOff x="0" y="-53015"/>
-          <a:chExt cx="4950119" cy="968292"/>
+          <a:off x="7829007" y="161292"/>
+          <a:ext cx="4965065" cy="1021310"/>
+          <a:chOff x="-7471" y="-53015"/>
+          <a:chExt cx="4965063" cy="1021309"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -594,8 +594,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1" y="48334"/>
-            <a:ext cx="4950121" cy="866944"/>
+            <a:off x="-1" y="101349"/>
+            <a:ext cx="4950122" cy="866945"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -627,8 +627,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11579" y="-53016"/>
-            <a:ext cx="4926962" cy="812896"/>
+            <a:off x="-7472" y="-53016"/>
+            <a:ext cx="4965064" cy="812896"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1967,14 +1967,14 @@
         <v>3</v>
       </c>
       <c r="N2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3">
         <v>3</v>
       </c>
       <c r="P2" s="4">
         <f>SUM(F2:O2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="4">
@@ -2023,14 +2023,14 @@
         <v>3</v>
       </c>
       <c r="N3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="3">
         <v>3</v>
       </c>
       <c r="P3" s="4">
         <f>SUM(F3:O3)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="4">
@@ -2079,14 +2079,14 @@
         <v>3</v>
       </c>
       <c r="N4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
       <c r="P4" s="4">
         <f>SUM(F4:O4)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="4">
@@ -2135,14 +2135,14 @@
         <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="3">
         <v>3</v>
       </c>
       <c r="P5" s="4">
         <f>SUM(F5:O5)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="4">
@@ -2166,15 +2166,9 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="4">
-        <f>SUM(F6:O6)</f>
-        <v>0</v>
-      </c>
+      <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="4">
-        <f>VLOOKUP(P6,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="5"/>
@@ -2192,15 +2186,9 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="4">
-        <f>SUM(F7:O7)</f>
-        <v>0</v>
-      </c>
+      <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="4">
-        <f>VLOOKUP(P7,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="5"/>
@@ -2218,15 +2206,9 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="4">
-        <f>SUM(F8:O8)</f>
-        <v>0</v>
-      </c>
+      <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="4">
-        <f>VLOOKUP(P8,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R8" s="4"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="5"/>
@@ -2244,15 +2226,9 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="4">
-        <f>SUM(F9:O9)</f>
-        <v>0</v>
-      </c>
+      <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="4">
-        <f>VLOOKUP(P9,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R9" s="4"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="5"/>
@@ -2270,15 +2246,9 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="4">
-        <f>SUM(F10:O10)</f>
-        <v>0</v>
-      </c>
+      <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="4">
-        <f>VLOOKUP(P10,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="5"/>
@@ -2296,15 +2266,9 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="4">
-        <f>SUM(F11:O11)</f>
-        <v>0</v>
-      </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="4">
-        <f>VLOOKUP(P11,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R11" s="4"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" s="5"/>
@@ -2322,15 +2286,9 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="4">
-        <f>SUM(F12:O12)</f>
-        <v>0</v>
-      </c>
+      <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="4">
-        <f>VLOOKUP(P12,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" s="5"/>
@@ -2348,15 +2306,9 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="4">
-        <f>SUM(F13:O13)</f>
-        <v>0</v>
-      </c>
+      <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="4">
-        <f>VLOOKUP(P13,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" s="5"/>
@@ -2374,15 +2326,9 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="4">
-        <f>SUM(F14:O14)</f>
-        <v>0</v>
-      </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="4">
-        <f>VLOOKUP(P14,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" s="5"/>
@@ -2400,15 +2346,9 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="4">
-        <f>SUM(F15:O15)</f>
-        <v>0</v>
-      </c>
+      <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="4">
-        <f>VLOOKUP(P15,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" s="5"/>
@@ -2426,15 +2366,9 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="4">
-        <f>SUM(F16:O16)</f>
-        <v>0</v>
-      </c>
+      <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="4">
-        <f>VLOOKUP(P16,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R16" s="4"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" s="5"/>
@@ -2452,15 +2386,9 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="4">
-        <f>SUM(F17:O17)</f>
-        <v>0</v>
-      </c>
+      <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="4">
-        <f>VLOOKUP(P17,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R17" s="4"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" s="5"/>
@@ -2478,15 +2406,9 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="4">
-        <f>SUM(F18:O18)</f>
-        <v>0</v>
-      </c>
+      <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="4">
-        <f>VLOOKUP(P18,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" s="5"/>
@@ -2504,15 +2426,9 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="4">
-        <f>SUM(F19:O19)</f>
-        <v>0</v>
-      </c>
+      <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="4">
-        <f>VLOOKUP(P19,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" s="5"/>
@@ -2530,15 +2446,9 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="4">
-        <f>SUM(F20:O20)</f>
-        <v>0</v>
-      </c>
+      <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="4">
-        <f>VLOOKUP(P20,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R20" s="4"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" s="5"/>
@@ -2556,15 +2466,9 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="4">
-        <f>SUM(F21:O21)</f>
-        <v>0</v>
-      </c>
+      <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="4">
-        <f>VLOOKUP(P21,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R21" s="4"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" s="5"/>
@@ -2582,15 +2486,9 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="4">
-        <f>SUM(F22:O22)</f>
-        <v>0</v>
-      </c>
+      <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="4">
-        <f>VLOOKUP(P22,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" s="5"/>
@@ -2608,15 +2506,9 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="4">
-        <f>SUM(F23:O23)</f>
-        <v>0</v>
-      </c>
+      <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="4">
-        <f>VLOOKUP(P23,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R23" s="4"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" s="5"/>
@@ -2634,15 +2526,9 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="4">
-        <f>SUM(F24:O24)</f>
-        <v>0</v>
-      </c>
+      <c r="P24" s="4"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="4">
-        <f>VLOOKUP(P24,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" s="5"/>
@@ -2660,15 +2546,9 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="4">
-        <f>SUM(F25:O25)</f>
-        <v>0</v>
-      </c>
+      <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="4">
-        <f>VLOOKUP(P25,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" s="5"/>
@@ -2686,15 +2566,9 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="4">
-        <f>SUM(F26:O26)</f>
-        <v>0</v>
-      </c>
+      <c r="P26" s="4"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="4">
-        <f>VLOOKUP(P26,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R26" s="4"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" s="5"/>
@@ -2712,15 +2586,9 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="4">
-        <f>SUM(F27:O27)</f>
-        <v>0</v>
-      </c>
+      <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="4">
-        <f>VLOOKUP(P27,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" s="5"/>
@@ -2738,15 +2606,9 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="4">
-        <f>SUM(F28:O28)</f>
-        <v>0</v>
-      </c>
+      <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="4">
-        <f>VLOOKUP(P28,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R28" s="4"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" s="5"/>
@@ -2764,15 +2626,9 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="4">
-        <f>SUM(F29:O29)</f>
-        <v>0</v>
-      </c>
+      <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="4">
-        <f>VLOOKUP(P29,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" s="5"/>
@@ -2790,15 +2646,9 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="4">
-        <f>SUM(F30:O30)</f>
-        <v>0</v>
-      </c>
+      <c r="P30" s="4"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="4">
-        <f>VLOOKUP(P30,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" s="5"/>
@@ -2816,15 +2666,9 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="4">
-        <f>SUM(F31:O31)</f>
-        <v>0</v>
-      </c>
+      <c r="P31" s="4"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="4">
-        <f>VLOOKUP(P31,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R31" s="4"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" s="5"/>
@@ -2842,15 +2686,9 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="4">
-        <f>SUM(F32:O32)</f>
-        <v>0</v>
-      </c>
+      <c r="P32" s="4"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="4">
-        <f>VLOOKUP(P32,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R32" s="4"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" s="5"/>
@@ -2868,15 +2706,9 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="4">
-        <f>SUM(F33:O33)</f>
-        <v>0</v>
-      </c>
+      <c r="P33" s="4"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="4">
-        <f>VLOOKUP(P33,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R33" s="4"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" s="5"/>
@@ -2894,15 +2726,9 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="4">
-        <f>SUM(F34:O34)</f>
-        <v>0</v>
-      </c>
+      <c r="P34" s="4"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="4">
-        <f>VLOOKUP(P34,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R34" s="4"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" s="5"/>
@@ -2920,15 +2746,9 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="4">
-        <f>SUM(F35:O35)</f>
-        <v>0</v>
-      </c>
+      <c r="P35" s="4"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="4">
-        <f>VLOOKUP(P35,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R35" s="4"/>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" s="5"/>
@@ -2946,15 +2766,9 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="4">
-        <f>SUM(F36:O36)</f>
-        <v>0</v>
-      </c>
+      <c r="P36" s="4"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="4">
-        <f>VLOOKUP(P36,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R36" s="4"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" s="5"/>
@@ -2972,15 +2786,9 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="4">
-        <f>SUM(F37:O37)</f>
-        <v>0</v>
-      </c>
+      <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="4">
-        <f>VLOOKUP(P37,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R37" s="4"/>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" s="5"/>
@@ -2998,15 +2806,9 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="4">
-        <f>SUM(F38:O38)</f>
-        <v>0</v>
-      </c>
+      <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="4">
-        <f>VLOOKUP(P38,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" s="5"/>
@@ -3024,15 +2826,9 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="4">
-        <f>SUM(F39:O39)</f>
-        <v>0</v>
-      </c>
+      <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="4">
-        <f>VLOOKUP(P39,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R39" s="4"/>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" s="5"/>
@@ -3050,15 +2846,9 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="4">
-        <f>SUM(F40:O40)</f>
-        <v>0</v>
-      </c>
+      <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="4">
-        <f>VLOOKUP(P40,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R40" s="4"/>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" s="5"/>
@@ -3076,15 +2866,9 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="4">
-        <f>SUM(F41:O41)</f>
-        <v>0</v>
-      </c>
+      <c r="P41" s="4"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="4">
-        <f>VLOOKUP(P41,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R41" s="4"/>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" s="5"/>
@@ -3102,15 +2886,9 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="4">
-        <f>SUM(F42:O42)</f>
-        <v>0</v>
-      </c>
+      <c r="P42" s="4"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="4">
-        <f>VLOOKUP(P42,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R42" s="4"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" s="5"/>
@@ -3128,15 +2906,9 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="4">
-        <f>SUM(F43:O43)</f>
-        <v>0</v>
-      </c>
+      <c r="P43" s="4"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="4">
-        <f>VLOOKUP(P43,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R43" s="4"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" s="5"/>
@@ -3154,15 +2926,9 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="4">
-        <f>SUM(F44:O44)</f>
-        <v>0</v>
-      </c>
+      <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="4">
-        <f>VLOOKUP(P44,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R44" s="4"/>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" s="5"/>
@@ -3180,15 +2946,9 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="4">
-        <f>SUM(F45:O45)</f>
-        <v>0</v>
-      </c>
+      <c r="P45" s="4"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="4">
-        <f>VLOOKUP(P45,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R45" s="4"/>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" s="5"/>
@@ -3206,15 +2966,9 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="4">
-        <f>SUM(F46:O46)</f>
-        <v>0</v>
-      </c>
+      <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="4">
-        <f>VLOOKUP(P46,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R46" s="4"/>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" s="5"/>
@@ -3232,15 +2986,9 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="4">
-        <f>SUM(F47:O47)</f>
-        <v>0</v>
-      </c>
+      <c r="P47" s="4"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="4">
-        <f>VLOOKUP(P47,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R47" s="4"/>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" s="5"/>
@@ -3258,15 +3006,9 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="4">
-        <f>SUM(F48:O48)</f>
-        <v>0</v>
-      </c>
+      <c r="P48" s="4"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="4">
-        <f>VLOOKUP(P48,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R48" s="4"/>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" s="5"/>
@@ -3284,15 +3026,9 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="4">
-        <f>SUM(F49:O49)</f>
-        <v>0</v>
-      </c>
+      <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="4">
-        <f>VLOOKUP(P49,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R49" s="4"/>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" s="5"/>
@@ -3310,15 +3046,9 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="4">
-        <f>SUM(F50:O50)</f>
-        <v>0</v>
-      </c>
+      <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="4">
-        <f>VLOOKUP(P50,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R50" s="4"/>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" s="5"/>
@@ -3336,15 +3066,9 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="4">
-        <f>SUM(F51:O51)</f>
-        <v>0</v>
-      </c>
+      <c r="P51" s="4"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="4">
-        <f>VLOOKUP(P51,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R51" s="4"/>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" s="5"/>
@@ -3362,15 +3086,9 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="4">
-        <f>SUM(F52:O52)</f>
-        <v>0</v>
-      </c>
+      <c r="P52" s="4"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="4">
-        <f>VLOOKUP(P52,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R52" s="4"/>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" s="5"/>
@@ -3388,15 +3106,9 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="4">
-        <f>SUM(F53:O53)</f>
-        <v>0</v>
-      </c>
+      <c r="P53" s="4"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="4">
-        <f>VLOOKUP(P53,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R53" s="4"/>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" s="5"/>
@@ -3414,15 +3126,9 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
-      <c r="P54" s="4">
-        <f>SUM(F54:O54)</f>
-        <v>0</v>
-      </c>
+      <c r="P54" s="4"/>
       <c r="Q54" s="5"/>
-      <c r="R54" s="4">
-        <f>VLOOKUP(P54,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R54" s="4"/>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" s="5"/>
@@ -3440,15 +3146,9 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="4">
-        <f>SUM(F55:O55)</f>
-        <v>0</v>
-      </c>
+      <c r="P55" s="4"/>
       <c r="Q55" s="5"/>
-      <c r="R55" s="4">
-        <f>VLOOKUP(P55,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" s="5"/>
@@ -3466,15 +3166,9 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="4">
-        <f>SUM(F56:O56)</f>
-        <v>0</v>
-      </c>
+      <c r="P56" s="4"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="4">
-        <f>VLOOKUP(P56,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R56" s="4"/>
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" s="5"/>
@@ -3492,15 +3186,9 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="4">
-        <f>SUM(F57:O57)</f>
-        <v>0</v>
-      </c>
+      <c r="P57" s="4"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="4">
-        <f>VLOOKUP(P57,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R57" s="4"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" s="5"/>
@@ -3518,15 +3206,9 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
-      <c r="P58" s="4">
-        <f>SUM(F58:O58)</f>
-        <v>0</v>
-      </c>
+      <c r="P58" s="4"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="4">
-        <f>VLOOKUP(P58,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R58" s="4"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" s="5"/>
@@ -3544,15 +3226,9 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
-      <c r="P59" s="4">
-        <f>SUM(F59:O59)</f>
-        <v>0</v>
-      </c>
+      <c r="P59" s="4"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="4">
-        <f>VLOOKUP(P59,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R59" s="4"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
       <c r="A60" s="5"/>
@@ -3570,15 +3246,9 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
-      <c r="P60" s="4">
-        <f>SUM(F60:O60)</f>
-        <v>0</v>
-      </c>
+      <c r="P60" s="4"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="4">
-        <f>VLOOKUP(P60,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R60" s="4"/>
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" s="5"/>
@@ -3596,15 +3266,9 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
-      <c r="P61" s="4">
-        <f>SUM(F61:O61)</f>
-        <v>0</v>
-      </c>
+      <c r="P61" s="4"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="4">
-        <f>VLOOKUP(P61,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R61" s="4"/>
     </row>
     <row r="62" ht="13.55" customHeight="1">
       <c r="A62" s="5"/>
@@ -3622,15 +3286,9 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
-      <c r="P62" s="4">
-        <f>SUM(F62:O62)</f>
-        <v>0</v>
-      </c>
+      <c r="P62" s="4"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="4">
-        <f>VLOOKUP(P62,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R62" s="4"/>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" s="5"/>
@@ -3648,15 +3306,9 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
-      <c r="P63" s="4">
-        <f>SUM(F63:O63)</f>
-        <v>0</v>
-      </c>
+      <c r="P63" s="4"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="4">
-        <f>VLOOKUP(P63,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R63" s="4"/>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" s="5"/>
@@ -3674,15 +3326,9 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
-      <c r="P64" s="4">
-        <f>SUM(F64:O64)</f>
-        <v>0</v>
-      </c>
+      <c r="P64" s="4"/>
       <c r="Q64" s="5"/>
-      <c r="R64" s="4">
-        <f>VLOOKUP(P64,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R64" s="4"/>
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" s="5"/>
@@ -3700,15 +3346,9 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
-      <c r="P65" s="4">
-        <f>SUM(F65:O65)</f>
-        <v>0</v>
-      </c>
+      <c r="P65" s="4"/>
       <c r="Q65" s="5"/>
-      <c r="R65" s="4">
-        <f>VLOOKUP(P65,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R65" s="4"/>
     </row>
     <row r="66" ht="13.55" customHeight="1">
       <c r="A66" s="5"/>
@@ -3726,15 +3366,9 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
-      <c r="P66" s="4">
-        <f>SUM(F66:O66)</f>
-        <v>0</v>
-      </c>
+      <c r="P66" s="4"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="4">
-        <f>VLOOKUP(P66,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R66" s="4"/>
     </row>
     <row r="67" ht="13.55" customHeight="1">
       <c r="A67" s="5"/>
@@ -3752,15 +3386,9 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="4">
-        <f>SUM(F67:O67)</f>
-        <v>0</v>
-      </c>
+      <c r="P67" s="4"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="4">
-        <f>VLOOKUP(P67,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R67" s="4"/>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" s="5"/>
@@ -3778,15 +3406,9 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="4">
-        <f>SUM(F68:O68)</f>
-        <v>0</v>
-      </c>
+      <c r="P68" s="4"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="4">
-        <f>VLOOKUP(P68,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R68" s="4"/>
     </row>
     <row r="69" ht="13.55" customHeight="1">
       <c r="A69" s="5"/>
@@ -3804,15 +3426,9 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
-      <c r="P69" s="4">
-        <f>SUM(F69:O69)</f>
-        <v>0</v>
-      </c>
+      <c r="P69" s="4"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="4">
-        <f>VLOOKUP(P69,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R69" s="4"/>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" s="5"/>
@@ -3830,15 +3446,9 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
-      <c r="P70" s="4">
-        <f>SUM(F70:O70)</f>
-        <v>0</v>
-      </c>
+      <c r="P70" s="4"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="4">
-        <f>VLOOKUP(P70,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R70" s="4"/>
     </row>
     <row r="71" ht="13.55" customHeight="1">
       <c r="A71" s="5"/>
@@ -3856,15 +3466,9 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
-      <c r="P71" s="4">
-        <f>SUM(F71:O71)</f>
-        <v>0</v>
-      </c>
+      <c r="P71" s="4"/>
       <c r="Q71" s="5"/>
-      <c r="R71" s="4">
-        <f>VLOOKUP(P71,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R71" s="4"/>
     </row>
     <row r="72" ht="13.55" customHeight="1">
       <c r="A72" s="5"/>
@@ -3882,15 +3486,9 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="4">
-        <f>SUM(F72:O72)</f>
-        <v>0</v>
-      </c>
+      <c r="P72" s="4"/>
       <c r="Q72" s="5"/>
-      <c r="R72" s="4">
-        <f>VLOOKUP(P72,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R72" s="4"/>
     </row>
     <row r="73" ht="13.55" customHeight="1">
       <c r="A73" s="5"/>
@@ -3908,15 +3506,9 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
-      <c r="P73" s="4">
-        <f>SUM(F73:O73)</f>
-        <v>0</v>
-      </c>
+      <c r="P73" s="4"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="4">
-        <f>VLOOKUP(P73,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R73" s="4"/>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" s="5"/>
@@ -3934,15 +3526,9 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="4">
-        <f>SUM(F74:O74)</f>
-        <v>0</v>
-      </c>
+      <c r="P74" s="4"/>
       <c r="Q74" s="5"/>
-      <c r="R74" s="4">
-        <f>VLOOKUP(P74,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R74" s="4"/>
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" s="5"/>
@@ -3960,15 +3546,9 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
-      <c r="P75" s="4">
-        <f>SUM(F75:O75)</f>
-        <v>0</v>
-      </c>
+      <c r="P75" s="4"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="4">
-        <f>VLOOKUP(P75,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R75" s="4"/>
     </row>
     <row r="76" ht="13.55" customHeight="1">
       <c r="A76" s="5"/>
@@ -3986,15 +3566,9 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
-      <c r="P76" s="4">
-        <f>SUM(F76:O76)</f>
-        <v>0</v>
-      </c>
+      <c r="P76" s="4"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="4">
-        <f>VLOOKUP(P76,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R76" s="4"/>
     </row>
     <row r="77" ht="13.55" customHeight="1">
       <c r="A77" s="5"/>
@@ -4012,15 +3586,9 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
-      <c r="P77" s="4">
-        <f>SUM(F77:O77)</f>
-        <v>0</v>
-      </c>
+      <c r="P77" s="4"/>
       <c r="Q77" s="5"/>
-      <c r="R77" s="4">
-        <f>VLOOKUP(P77,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R77" s="4"/>
     </row>
     <row r="78" ht="13.55" customHeight="1">
       <c r="A78" s="5"/>
@@ -4038,15 +3606,9 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
-      <c r="P78" s="4">
-        <f>SUM(F78:O78)</f>
-        <v>0</v>
-      </c>
+      <c r="P78" s="4"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="4">
-        <f>VLOOKUP(P78,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R78" s="4"/>
     </row>
     <row r="79" ht="13.55" customHeight="1">
       <c r="A79" s="5"/>
@@ -4064,15 +3626,9 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
-      <c r="P79" s="4">
-        <f>SUM(F79:O79)</f>
-        <v>0</v>
-      </c>
+      <c r="P79" s="4"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="4">
-        <f>VLOOKUP(P79,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R79" s="4"/>
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" s="5"/>
@@ -4090,15 +3646,9 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
-      <c r="P80" s="4">
-        <f>SUM(F80:O80)</f>
-        <v>0</v>
-      </c>
+      <c r="P80" s="4"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="4">
-        <f>VLOOKUP(P80,'Notenspiegel'!$D$17:$E$47,2,0)</f>
-        <v>5</v>
-      </c>
+      <c r="R80" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811" footer="0.511811"/>
